--- a/CSV Template/CodingMatrix.xlsx
+++ b/CSV Template/CodingMatrix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\urbin\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\urbin\Documents\Code\SATAL\CSV Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE22BC77-4382-4DDF-9E1F-50EB2E80A63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CB5B18-E460-4137-8D71-C959818C276F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="88">
   <si>
     <t>Other</t>
   </si>
@@ -867,12 +867,21 @@
       <t>, identify good analogies, etc.</t>
     </r>
   </si>
+  <si>
+    <t>AnQ_</t>
+  </si>
+  <si>
+    <t>W_</t>
+  </si>
+  <si>
+    <t>O_</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -957,6 +966,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1606,7 +1623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
@@ -1772,9 +1789,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2123,8 +2149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3536,8 +3562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBD51F8-FA19-43BA-A28E-D37E93D56AE1}">
   <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3546,105 +3572,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="str">
-        <f>'50 min class'!C9</f>
-        <v>L</v>
-      </c>
-      <c r="B1" s="72" t="str">
-        <f>'50 min class'!D9</f>
-        <v>Ind</v>
-      </c>
-      <c r="C1" s="72" t="str">
-        <f>'50 min class'!E9</f>
-        <v>CG</v>
-      </c>
-      <c r="D1" s="72" t="str">
-        <f>'50 min class'!F9</f>
-        <v>WG</v>
-      </c>
-      <c r="E1" s="72" t="str">
-        <f>'50 min class'!G9</f>
-        <v>OG</v>
-      </c>
-      <c r="F1" s="72" t="str">
-        <f>'50 min class'!H9</f>
-        <v>AnQ</v>
-      </c>
-      <c r="G1" s="72" t="str">
-        <f>'50 min class'!I9</f>
-        <v>SQ</v>
-      </c>
-      <c r="H1" s="72" t="str">
-        <f>'50 min class'!J9</f>
-        <v>WC</v>
-      </c>
-      <c r="I1" s="72" t="str">
-        <f>'50 min class'!K9</f>
-        <v>Prd</v>
-      </c>
-      <c r="J1" s="72" t="str">
-        <f>'50 min class'!L9</f>
-        <v>SP</v>
-      </c>
-      <c r="K1" s="72" t="str">
-        <f>'50 min class'!M9</f>
-        <v>T/Q</v>
-      </c>
-      <c r="L1" s="72" t="str">
-        <f>'50 min class'!N9</f>
-        <v>W</v>
-      </c>
-      <c r="M1" s="72" t="str">
-        <f>'50 min class'!O9</f>
-        <v>O</v>
-      </c>
-      <c r="N1" s="72" t="str">
-        <f>'50 min class'!P9</f>
-        <v>Lec</v>
-      </c>
-      <c r="O1" s="72" t="str">
-        <f>'50 min class'!Q9</f>
-        <v>RtW</v>
-      </c>
-      <c r="P1" s="72" t="str">
-        <f>'50 min class'!R9</f>
-        <v>FUp</v>
-      </c>
-      <c r="Q1" s="72" t="str">
-        <f>'50 min class'!S9</f>
-        <v>PQ</v>
-      </c>
-      <c r="R1" s="72" t="str">
-        <f>'50 min class'!T9</f>
-        <v>CQ</v>
-      </c>
-      <c r="S1" s="72" t="str">
-        <f>'50 min class'!U9</f>
-        <v>AnQ</v>
-      </c>
-      <c r="T1" s="72" t="str">
-        <f>'50 min class'!V9</f>
-        <v>MG</v>
-      </c>
-      <c r="U1" s="72" t="str">
-        <f>'50 min class'!W9</f>
-        <v>1o1</v>
-      </c>
-      <c r="V1" s="72" t="str">
-        <f>'50 min class'!X9</f>
-        <v>D/V</v>
-      </c>
-      <c r="W1" s="72" t="str">
-        <f>'50 min class'!Y9</f>
-        <v>Adm</v>
-      </c>
-      <c r="X1" s="72" t="str">
-        <f>'50 min class'!Z9</f>
-        <v>W</v>
-      </c>
-      <c r="Y1" s="73" t="str">
-        <f>'50 min class'!AA9</f>
-        <v>O</v>
+      <c r="A1" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="O1" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q1" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="T1" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="U1" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="V1" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="W1" s="72" t="s">
+        <v>49</v>
+      </c>
+      <c r="X1" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y1" s="73" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
@@ -6198,7 +6199,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TZogrixvLg1Z+t0t5QYyb4pRj8iaQMiYaksGFRFNK7bET8VLtmb91GW15MCfu6V5fdwvb12uqTxIbd8Yo4eofA==" saltValue="fy4M0O50XWaMFVj9alwuEw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="OY95l+QQuI6IwzD8HkYd4T4pQbIRJi6F0zrm9hqMyvl7mdvPpcbX3GXo9xsyuZJzxjRBADWtB/GpbUfxQhi1/Q==" saltValue="lkHsTG5Poz/OcBXyzzbhsA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>